--- a/target/test-classes/dataEngine/DataEngine.xlsx
+++ b/target/test-classes/dataEngine/DataEngine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -281,17 +281,13 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -710,21 +706,21 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" style="4" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="51.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="22.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="24.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="4" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" style="4"/>
+    <col min="3" max="3" width="51.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -747,7 +743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -758,7 +754,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -775,11 +771,8 @@
       <c r="F3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -794,11 +787,8 @@
         <v>14</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -815,11 +805,8 @@
         <v>63</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -838,11 +825,8 @@
       <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -859,11 +843,8 @@
         <v>63</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -882,11 +863,8 @@
       <c r="F8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -903,11 +881,8 @@
         <v>63</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -924,11 +899,8 @@
         <v>26</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -943,11 +915,8 @@
         <v>19</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
@@ -967,7 +936,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
@@ -983,7 +952,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -1001,7 +970,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -1019,7 +988,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
@@ -1037,7 +1006,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>67</v>
       </c>
@@ -1055,7 +1024,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
@@ -1073,7 +1042,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -1091,7 +1060,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
@@ -1111,7 +1080,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -1129,7 +1098,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
@@ -1165,18 +1134,18 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="41.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="10" width="12.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="10" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1199,9 +1168,6 @@
       </c>
       <c r="C2" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/target/test-classes/dataEngine/DataEngine.xlsx
+++ b/target/test-classes/dataEngine/DataEngine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="89">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -281,13 +281,20 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,7 +702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -711,16 +718,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.7109375" style="4"/>
-    <col min="3" max="3" width="51.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" style="4" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="51.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="22.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="24.85546875" collapsed="true"/>
+    <col min="7" max="16384" style="4" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -743,7 +750,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -754,7 +761,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -771,8 +778,11 @@
       <c r="F3" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -787,8 +797,11 @@
         <v>14</v>
       </c>
       <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -805,8 +818,11 @@
         <v>63</v>
       </c>
       <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -825,8 +841,11 @@
       <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -843,8 +862,11 @@
         <v>63</v>
       </c>
       <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -863,8 +885,11 @@
       <c r="F8" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -881,8 +906,11 @@
         <v>63</v>
       </c>
       <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -899,8 +927,11 @@
         <v>26</v>
       </c>
       <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -915,8 +946,11 @@
         <v>19</v>
       </c>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
@@ -935,8 +969,11 @@
       <c r="F12" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
@@ -952,7 +989,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -970,7 +1007,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -988,7 +1025,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
@@ -1006,7 +1043,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>67</v>
       </c>
@@ -1024,7 +1061,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
@@ -1042,7 +1079,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -1060,7 +1097,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
@@ -1080,7 +1117,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -1098,7 +1135,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
@@ -1134,18 +1171,18 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.7109375" style="10"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="41.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="10" width="12.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="10" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1168,6 +1205,9 @@
       </c>
       <c r="C2" s="11" t="s">
         <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1177,8 +1217,11 @@
       <c r="B3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>86</v>
+      <c r="C3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/target/test-classes/dataEngine/DataEngine.xlsx
+++ b/target/test-classes/dataEngine/DataEngine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -284,17 +284,13 @@
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,18 +709,18 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" style="4" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="51.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="22.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="24.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="4" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" style="4" collapsed="1"/>
+    <col min="3" max="3" width="51.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="8.7109375" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -969,9 +965,7 @@
       <c r="F12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G12" t="s">
-        <v>88</v>
-      </c>
+      <c r="G12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1171,15 +1165,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="41.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="10" width="12.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="10" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.7109375" style="10" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1217,12 +1211,10 @@
       <c r="B3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">

--- a/target/test-classes/dataEngine/DataEngine.xlsx
+++ b/target/test-classes/dataEngine/DataEngine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -284,13 +284,17 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,13 +718,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.7109375" style="4" collapsed="1"/>
-    <col min="3" max="3" width="51.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="8.7109375" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" style="4" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="51.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="22.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="24.85546875" collapsed="true"/>
+    <col min="7" max="16384" style="4" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -965,7 +969,9 @@
       <c r="F12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G12"/>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1170,10 +1176,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.7109375" style="10" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="41.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="10" width="12.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="10" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,7 +1220,9 @@
       <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
